--- a/Requisitos do Sistema/Requisitos.mvp.xlsx
+++ b/Requisitos do Sistema/Requisitos.mvp.xlsx
@@ -307,7 +307,7 @@
         <rFont val="Calibri"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> - O site deve exigir autentificação forte da senha dos administradores.</t>
+      <t xml:space="preserve"> - O site deve exigir senha dos administradores.</t>
     </r>
   </si>
   <si>
@@ -358,7 +358,7 @@
         <rFont val="Calibri"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> - Otimização de imagens com resolução adequada, tamanho reduzido sem perder qualidade.</t>
+      <t xml:space="preserve"> - Ser compatível com principais navegadores modernos (Chrome, Firefox, Edge).</t>
     </r>
   </si>
   <si>
@@ -498,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -513,6 +513,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,8 +904,8 @@
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
